--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col4a3-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col4a3-Cd93.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.520183</v>
+        <v>0.6955149999999999</v>
       </c>
       <c r="H2">
-        <v>1.560549</v>
+        <v>2.086545</v>
       </c>
       <c r="I2">
-        <v>0.03656880080220595</v>
+        <v>0.04699474681458952</v>
       </c>
       <c r="J2">
-        <v>0.03656880080220595</v>
+        <v>0.04699474681458952</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>122.328922</v>
+        <v>83.91225566666667</v>
       </c>
       <c r="N2">
-        <v>366.986766</v>
+        <v>251.736767</v>
       </c>
       <c r="O2">
-        <v>0.9783373008518612</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="P2">
-        <v>0.9783373008518613</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="Q2">
-        <v>63.63342563272599</v>
+        <v>58.36223250000166</v>
       </c>
       <c r="R2">
-        <v>572.7008306945339</v>
+        <v>525.2600925000149</v>
       </c>
       <c r="S2">
-        <v>0.03577662187221955</v>
+        <v>0.04490940922032372</v>
       </c>
       <c r="T2">
-        <v>0.03577662187221956</v>
+        <v>0.04490940922032372</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.520183</v>
+        <v>0.6955149999999999</v>
       </c>
       <c r="H3">
-        <v>1.560549</v>
+        <v>2.086545</v>
       </c>
       <c r="I3">
-        <v>0.03656880080220595</v>
+        <v>0.04699474681458952</v>
       </c>
       <c r="J3">
-        <v>0.03656880080220595</v>
+        <v>0.04699474681458952</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.159072</v>
       </c>
       <c r="O3">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="P3">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="Q3">
-        <v>0.2009765167253333</v>
+        <v>0.2687173206933333</v>
       </c>
       <c r="R3">
-        <v>1.808788650528</v>
+        <v>2.41845588624</v>
       </c>
       <c r="S3">
-        <v>0.0001129950300896607</v>
+        <v>0.0002067764648928659</v>
       </c>
       <c r="T3">
-        <v>0.0001129950300896607</v>
+        <v>0.0002067764648928659</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.520183</v>
+        <v>0.6955149999999999</v>
       </c>
       <c r="H4">
-        <v>1.560549</v>
+        <v>2.086545</v>
       </c>
       <c r="I4">
-        <v>0.03656880080220595</v>
+        <v>0.04699474681458952</v>
       </c>
       <c r="J4">
-        <v>0.03656880080220595</v>
+        <v>0.04699474681458952</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.322294</v>
+        <v>3.510050666666667</v>
       </c>
       <c r="N4">
-        <v>6.966882</v>
+        <v>10.530152</v>
       </c>
       <c r="O4">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505296</v>
       </c>
       <c r="P4">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505297</v>
       </c>
       <c r="Q4">
-        <v>1.208017859802</v>
+        <v>2.441292889426666</v>
       </c>
       <c r="R4">
-        <v>10.872160738218</v>
+        <v>21.97163600484</v>
       </c>
       <c r="S4">
-        <v>0.000679183899896741</v>
+        <v>0.001878561129372931</v>
       </c>
       <c r="T4">
-        <v>0.0006791838998967411</v>
+        <v>0.001878561129372931</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>38.954718</v>
       </c>
       <c r="I5">
-        <v>0.912837291778795</v>
+        <v>0.8773676626402658</v>
       </c>
       <c r="J5">
-        <v>0.9128372917787949</v>
+        <v>0.8773676626402658</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>122.328922</v>
+        <v>83.91225566666667</v>
       </c>
       <c r="N5">
-        <v>366.986766</v>
+        <v>251.736767</v>
       </c>
       <c r="O5">
-        <v>0.9783373008518612</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="P5">
-        <v>0.9783373008518613</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="Q5">
-        <v>1588.429553251332</v>
+        <v>1089.592752079634</v>
       </c>
       <c r="R5">
-        <v>14295.86597926199</v>
+        <v>9806.334768716706</v>
       </c>
       <c r="S5">
-        <v>0.8930627721557892</v>
+        <v>0.8384354862820168</v>
       </c>
       <c r="T5">
-        <v>0.8930627721557892</v>
+        <v>0.8384354862820168</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>38.954718</v>
       </c>
       <c r="I6">
-        <v>0.912837291778795</v>
+        <v>0.8773676626402658</v>
       </c>
       <c r="J6">
-        <v>0.9128372917787949</v>
+        <v>0.8773676626402658</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.159072</v>
       </c>
       <c r="O6">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="P6">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="Q6">
         <v>5.016813655744001</v>
@@ -818,10 +818,10 @@
         <v>45.15132290169601</v>
       </c>
       <c r="S6">
-        <v>0.00282060321883148</v>
+        <v>0.003860409854059458</v>
       </c>
       <c r="T6">
-        <v>0.002820603218831479</v>
+        <v>0.003860409854059458</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>38.954718</v>
       </c>
       <c r="I7">
-        <v>0.912837291778795</v>
+        <v>0.8773676626402658</v>
       </c>
       <c r="J7">
-        <v>0.9128372917787949</v>
+        <v>0.8773676626402658</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.322294</v>
+        <v>3.510050666666667</v>
       </c>
       <c r="N7">
-        <v>6.966882</v>
+        <v>10.530152</v>
       </c>
       <c r="O7">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505296</v>
       </c>
       <c r="P7">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505297</v>
       </c>
       <c r="Q7">
-        <v>30.154769294364</v>
+        <v>45.577677961904</v>
       </c>
       <c r="R7">
-        <v>271.392923649276</v>
+        <v>410.1991016571361</v>
       </c>
       <c r="S7">
-        <v>0.01695391640417428</v>
+        <v>0.03507176650418948</v>
       </c>
       <c r="T7">
-        <v>0.01695391640417428</v>
+        <v>0.03507176650418949</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.719687</v>
+        <v>1.119424666666667</v>
       </c>
       <c r="H8">
-        <v>2.159061</v>
+        <v>3.358274</v>
       </c>
       <c r="I8">
-        <v>0.05059390741899907</v>
+        <v>0.07563759054514464</v>
       </c>
       <c r="J8">
-        <v>0.05059390741899907</v>
+        <v>0.07563759054514466</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>122.328922</v>
+        <v>83.91225566666667</v>
       </c>
       <c r="N8">
-        <v>366.986766</v>
+        <v>251.736767</v>
       </c>
       <c r="O8">
-        <v>0.9783373008518612</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="P8">
-        <v>0.9783373008518613</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="Q8">
-        <v>88.03853488741399</v>
+        <v>93.93344882890645</v>
       </c>
       <c r="R8">
-        <v>792.3468139867259</v>
+        <v>845.4010394601581</v>
       </c>
       <c r="S8">
-        <v>0.04949790682385251</v>
+        <v>0.07228125985299787</v>
       </c>
       <c r="T8">
-        <v>0.04949790682385252</v>
+        <v>0.07228125985299788</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.719687</v>
+        <v>1.119424666666667</v>
       </c>
       <c r="H9">
-        <v>2.159061</v>
+        <v>3.358274</v>
       </c>
       <c r="I9">
-        <v>0.05059390741899907</v>
+        <v>0.07563759054514464</v>
       </c>
       <c r="J9">
-        <v>0.05059390741899907</v>
+        <v>0.07563759054514466</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.159072</v>
       </c>
       <c r="O9">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="P9">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="Q9">
-        <v>0.2780563501546667</v>
+        <v>0.432497929080889</v>
       </c>
       <c r="R9">
-        <v>2.502507151392</v>
+        <v>3.892481361728001</v>
       </c>
       <c r="S9">
-        <v>0.0001563316260241831</v>
+        <v>0.0003328047206562161</v>
       </c>
       <c r="T9">
-        <v>0.0001563316260241831</v>
+        <v>0.0003328047206562161</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.719687</v>
+        <v>1.119424666666667</v>
       </c>
       <c r="H10">
-        <v>2.159061</v>
+        <v>3.358274</v>
       </c>
       <c r="I10">
-        <v>0.05059390741899907</v>
+        <v>0.07563759054514464</v>
       </c>
       <c r="J10">
-        <v>0.05059390741899907</v>
+        <v>0.07563759054514466</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.322294</v>
+        <v>3.510050666666667</v>
       </c>
       <c r="N10">
-        <v>6.966882</v>
+        <v>10.530152</v>
       </c>
       <c r="O10">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505296</v>
       </c>
       <c r="P10">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505297</v>
       </c>
       <c r="Q10">
-        <v>1.671324801978</v>
+        <v>3.929237297516445</v>
       </c>
       <c r="R10">
-        <v>15.041923217802</v>
+        <v>35.363135677648</v>
       </c>
       <c r="S10">
-        <v>0.0009396689691223777</v>
+        <v>0.00302352597149055</v>
       </c>
       <c r="T10">
-        <v>0.0009396689691223778</v>
+        <v>0.003023525971490551</v>
       </c>
     </row>
   </sheetData>
